--- a/spliced/falling/2023-03-25_17-59-45/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-45/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.195896685123444</v>
+        <v>-2.669419974088668</v>
       </c>
       <c r="D2" t="n">
-        <v>8.818168640136719</v>
+        <v>9.347340643405914</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.334951654076576</v>
+        <v>-0.05590170621871929</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06276640295982359</v>
+        <v>0.0371100641787052</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5068654417991638</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0064140851609408</v>
+        <v>0.0224492978304624</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.037624061107635</v>
+        <v>-2.789929866790771</v>
       </c>
       <c r="D3" t="n">
-        <v>8.026161462068558</v>
+        <v>9.389312267303467</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.41215243935585</v>
+        <v>-0.0143058076500895</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0687223374843597</v>
+        <v>0.0600175112485885</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2246456891298294</v>
+        <v>-0.0474947728216648</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1652390509843826</v>
+        <v>0.0047342055477201</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.571272850036621</v>
+        <v>-3.052737355232238</v>
       </c>
       <c r="D4" t="n">
-        <v>6.589316844940186</v>
+        <v>9.127021908760071</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.011023998260498</v>
+        <v>-0.5663906224071975</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2229658216238021</v>
+        <v>0.0438295826315879</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.113315500319004</v>
+        <v>-0.08277224004268641</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2180788964033126</v>
+        <v>0.07590000331401819</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5.014195352792741</v>
+        <v>-3.195896685123444</v>
       </c>
       <c r="D5" t="n">
-        <v>5.515790849924088</v>
+        <v>8.818168640136719</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.485763758420944</v>
+        <v>-1.334951654076576</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3182607889175415</v>
+        <v>-0.06276640295982359</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6488916277885437</v>
+        <v>-0.5068654417991638</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4970915913581848</v>
+        <v>-0.0064140851609408</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-6.389075994491578</v>
+        <v>-4.037624061107635</v>
       </c>
       <c r="D6" t="n">
-        <v>5.315201640129089</v>
+        <v>8.026161462068558</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.994861543178557</v>
+        <v>-2.41215243935585</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3697261810302734</v>
+        <v>-0.0687223374843597</v>
       </c>
       <c r="G6" t="n">
-        <v>1.551903128623962</v>
+        <v>-0.2246456891298294</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.230448916554451</v>
+        <v>0.1652390509843826</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.530004173517225</v>
+        <v>-3.571272850036621</v>
       </c>
       <c r="D7" t="n">
-        <v>6.061075717210771</v>
+        <v>6.589316844940186</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.65171818435192</v>
+        <v>-3.011023998260498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.451123982667923</v>
+        <v>-0.2229658216238021</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8857545852661133</v>
+        <v>-0.113315500319004</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.012661814689636</v>
+        <v>0.2180788964033126</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.840012192726136</v>
+        <v>-5.014195352792741</v>
       </c>
       <c r="D8" t="n">
-        <v>7.050750851631165</v>
+        <v>5.515790849924088</v>
       </c>
       <c r="E8" t="n">
-        <v>2.538701653480534</v>
+        <v>-4.485763758420944</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1492038369178772</v>
+        <v>0.3182607889175415</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.078635334968567</v>
+        <v>0.6488916277885437</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.738939762115479</v>
+        <v>0.4970915913581848</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39.4459085166455</v>
+        <v>-6.389075994491578</v>
       </c>
       <c r="D9" t="n">
-        <v>14.87950980663301</v>
+        <v>5.315201640129089</v>
       </c>
       <c r="E9" t="n">
-        <v>20.98658950626853</v>
+        <v>-2.994861543178557</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.247386813163757</v>
+        <v>0.3697261810302734</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.642922043800354</v>
+        <v>1.551903128623962</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3756821155548095</v>
+        <v>-0.230448916554451</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.97534060478203</v>
+        <v>-4.530004173517225</v>
       </c>
       <c r="D10" t="n">
-        <v>11.63514316082</v>
+        <v>6.061075717210771</v>
       </c>
       <c r="E10" t="n">
-        <v>12.98352101445195</v>
+        <v>-1.65171818435192</v>
       </c>
       <c r="F10" t="n">
-        <v>2.319607973098755</v>
+        <v>0.451123982667923</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2393064647912979</v>
+        <v>0.8857545852661133</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.242333650588989</v>
+        <v>-1.012661814689636</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.842506676912319</v>
+        <v>-4.840012192726136</v>
       </c>
       <c r="D11" t="n">
-        <v>6.827371656894682</v>
+        <v>7.050750851631165</v>
       </c>
       <c r="E11" t="n">
-        <v>4.018280878663065</v>
+        <v>2.538701653480534</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1510364264249801</v>
+        <v>-0.1492038369178772</v>
       </c>
       <c r="G11" t="n">
-        <v>2.41413950920105</v>
+        <v>-1.078635334968567</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4211915731430053</v>
+        <v>-4.738939762115479</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.506411552429201</v>
+        <v>39.4459085166455</v>
       </c>
       <c r="D12" t="n">
-        <v>6.245316505432129</v>
+        <v>14.87950980663301</v>
       </c>
       <c r="E12" t="n">
-        <v>3.238075017929073</v>
+        <v>20.98658950626853</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2503020465373993</v>
+        <v>-1.247386813163757</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.337489485740662</v>
+        <v>-1.642922043800354</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0983493030071258</v>
+        <v>0.3756821155548095</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.049000829458237</v>
+        <v>20.97534060478203</v>
       </c>
       <c r="D13" t="n">
-        <v>7.41145807504654</v>
+        <v>11.63514316082</v>
       </c>
       <c r="E13" t="n">
-        <v>3.085425972938538</v>
+        <v>12.98352101445195</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4132503271102905</v>
+        <v>2.319607973098755</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2756529450416565</v>
+        <v>-0.2393064647912979</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5613851547241211</v>
+        <v>-2.242333650588989</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.151385545730594</v>
+        <v>1.842506676912319</v>
       </c>
       <c r="D14" t="n">
-        <v>9.354082107543944</v>
+        <v>6.827371656894682</v>
       </c>
       <c r="E14" t="n">
-        <v>3.488138377666476</v>
+        <v>4.018280878663065</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1337794959545135</v>
+        <v>0.1510364264249801</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3077233731746673</v>
+        <v>2.41413950920105</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0181732401251792</v>
+        <v>0.4211915731430053</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.843811631202696</v>
+        <v>5.506411552429201</v>
       </c>
       <c r="D15" t="n">
-        <v>9.246257454156877</v>
+        <v>6.245316505432129</v>
       </c>
       <c r="E15" t="n">
-        <v>2.557389497756956</v>
+        <v>3.238075017929073</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0068722339347004</v>
+        <v>0.2503020465373993</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2590068578720093</v>
+        <v>-1.337489485740662</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2180788964033126</v>
+        <v>0.0983493030071258</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.352240324020387</v>
+        <v>6.049000829458237</v>
       </c>
       <c r="D16" t="n">
-        <v>7.618153929710387</v>
+        <v>7.41145807504654</v>
       </c>
       <c r="E16" t="n">
-        <v>3.785528540611267</v>
+        <v>3.085425972938538</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0940732508897781</v>
+        <v>-0.4132503271102905</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0920879393815994</v>
+        <v>0.2756529450416565</v>
       </c>
       <c r="H16" t="n">
-        <v>0.011148290708661</v>
+        <v>-0.5613851547241211</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.598823010921479</v>
+        <v>5.151385545730594</v>
       </c>
       <c r="D17" t="n">
-        <v>8.679397195577621</v>
+        <v>9.354082107543944</v>
       </c>
       <c r="E17" t="n">
-        <v>3.499203532934189</v>
+        <v>3.488138377666476</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0429132841527462</v>
+        <v>-0.1337794959545135</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0099265603348612</v>
+        <v>0.3077233731746673</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2417499274015426</v>
+        <v>-0.0181732401251792</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.266197681427002</v>
+        <v>3.843811631202696</v>
       </c>
       <c r="D18" t="n">
-        <v>7.760588467121124</v>
+        <v>9.246257454156877</v>
       </c>
       <c r="E18" t="n">
-        <v>3.241497814655304</v>
+        <v>2.557389497756956</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0386372283101081</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07590000331401819</v>
+        <v>-0.2590068578720093</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0108428578823804</v>
+        <v>0.2180788964033126</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.850670516490936</v>
+        <v>4.352240324020387</v>
       </c>
       <c r="D19" t="n">
-        <v>7.733274400234222</v>
+        <v>7.618153929710387</v>
       </c>
       <c r="E19" t="n">
-        <v>3.111168667674065</v>
+        <v>3.785528540611267</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0050396383740007</v>
+        <v>-0.0940732508897781</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0752891451120376</v>
+        <v>-0.0920879393815994</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1829541474580764</v>
+        <v>0.011148290708661</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,50 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.987408638000488</v>
+        <v>3.598823010921479</v>
       </c>
       <c r="D20" t="n">
-        <v>8.183197975158691</v>
+        <v>8.679397195577621</v>
       </c>
       <c r="E20" t="n">
-        <v>3.346771001815796</v>
+        <v>3.499203532934189</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0255036242306232</v>
+        <v>-0.0429132841527462</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06322455406188961</v>
+        <v>-0.0099265603348612</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1140790879726409</v>
+        <v>-0.2417499274015426</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3.266197681427002</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.760588467121124</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.241497814655304</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0386372283101081</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.07590000331401819</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0108428578823804</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-45/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-45/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.669419974088668</v>
+        <v>-1.931140422821045</v>
       </c>
       <c r="D2" t="n">
-        <v>9.347340643405914</v>
+        <v>9.274446487426758</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05590170621871929</v>
+        <v>0.347445011138916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0371100641787052</v>
+        <v>0.308792382478714</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0024434609804302</v>
+        <v>-0.2591595947742462</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0224492978304624</v>
+        <v>0.3060434758663177</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.789929866790771</v>
+        <v>-2.475548833608627</v>
       </c>
       <c r="D3" t="n">
-        <v>9.389312267303467</v>
+        <v>9.384642362594603</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0143058076500895</v>
+        <v>0.7847917079925537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0600175112485885</v>
+        <v>0.197004035115242</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0474947728216648</v>
+        <v>0.0836885422468185</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0047342055477201</v>
+        <v>0.0430659987032413</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.052737355232238</v>
+        <v>-2.621871948242188</v>
       </c>
       <c r="D4" t="n">
-        <v>9.127021908760071</v>
+        <v>9.314098954200743</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5663906224071975</v>
+        <v>1.41282993555069</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0438295826315879</v>
+        <v>0.0916297882795333</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08277224004268641</v>
+        <v>0.034972034394741</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.0708603709936142</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.195896685123444</v>
+        <v>-2.868601083755493</v>
       </c>
       <c r="D5" t="n">
-        <v>8.818168640136719</v>
+        <v>9.443870902061462</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.334951654076576</v>
+        <v>0.9555243626236917</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.06276640295982359</v>
+        <v>0.0360410511493682</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5068654417991638</v>
+        <v>0.06902777403593061</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0064140851609408</v>
+        <v>-0.0134390350431203</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.037624061107635</v>
+        <v>-2.620113015174865</v>
       </c>
       <c r="D6" t="n">
-        <v>8.026161462068558</v>
+        <v>9.546792268753052</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.41215243935585</v>
+        <v>0.6990440487861633</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0687223374843597</v>
+        <v>-0.0181732401251792</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2246456891298294</v>
+        <v>0.0655152946710586</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1652390509843826</v>
+        <v>-0.0574213340878486</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.571272850036621</v>
+        <v>-2.44504114985466</v>
       </c>
       <c r="D7" t="n">
-        <v>6.589316844940186</v>
+        <v>9.541788041591644</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.011023998260498</v>
+        <v>0.372002582065761</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2229658216238021</v>
+        <v>-0.1020144969224929</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.113315500319004</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2180788964033126</v>
+        <v>-0.0577267669141292</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.014195352792741</v>
+        <v>-2.28140389919281</v>
       </c>
       <c r="D8" t="n">
-        <v>5.515790849924088</v>
+        <v>9.524857640266418</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.485763758420944</v>
+        <v>-0.01871592737734312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3182607889175415</v>
+        <v>-0.0662788823246955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6488916277885437</v>
+        <v>-0.0591012127697467</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4970915913581848</v>
+        <v>-0.0519235469400882</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.389075994491578</v>
+        <v>-2.462455779314041</v>
       </c>
       <c r="D9" t="n">
-        <v>5.315201640129089</v>
+        <v>9.538427114486694</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.994861543178557</v>
+        <v>-0.03734804317355161</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3697261810302734</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="G9" t="n">
-        <v>1.551903128623962</v>
+        <v>0.016951510682702</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.230448916554451</v>
+        <v>0.0032070425804704</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.530004173517225</v>
+        <v>-2.66546654701233</v>
       </c>
       <c r="D10" t="n">
-        <v>6.061075717210771</v>
+        <v>9.521270275115967</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.65171818435192</v>
+        <v>0.1833332777023315</v>
       </c>
       <c r="F10" t="n">
-        <v>0.451123982667923</v>
+        <v>-0.0189368221908807</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8857545852661133</v>
+        <v>0.0145080499351024</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.012661814689636</v>
+        <v>0.0222965814173221</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.840012192726136</v>
+        <v>-2.735388696193695</v>
       </c>
       <c r="D11" t="n">
-        <v>7.050750851631165</v>
+        <v>9.501047194004059</v>
       </c>
       <c r="E11" t="n">
-        <v>2.538701653480534</v>
+        <v>0.2642159881070256</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1492038369178772</v>
+        <v>-0.0164933614432811</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.078635334968567</v>
+        <v>-0.0006108652451075</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.738939762115479</v>
+        <v>-0.0030543261673301</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39.4459085166455</v>
+        <v>-2.759680032730102</v>
       </c>
       <c r="D12" t="n">
-        <v>14.87950980663301</v>
+        <v>9.431608200073242</v>
       </c>
       <c r="E12" t="n">
-        <v>20.98658950626853</v>
+        <v>0.08809284307062609</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.247386813163757</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.642922043800354</v>
+        <v>-0.0021380283869802</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3756821155548095</v>
+        <v>0.0117591563612222</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.97534060478203</v>
+        <v>-2.669419974088668</v>
       </c>
       <c r="D13" t="n">
-        <v>11.63514316082</v>
+        <v>9.347340643405914</v>
       </c>
       <c r="E13" t="n">
-        <v>12.98352101445195</v>
+        <v>-0.05590170621871929</v>
       </c>
       <c r="F13" t="n">
-        <v>2.319607973098755</v>
+        <v>0.0371100641787052</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2393064647912979</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.242333650588989</v>
+        <v>0.0224492978304624</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.842506676912319</v>
+        <v>-2.789929866790771</v>
       </c>
       <c r="D14" t="n">
-        <v>6.827371656894682</v>
+        <v>9.389312267303467</v>
       </c>
       <c r="E14" t="n">
-        <v>4.018280878663065</v>
+        <v>-0.0143058076500895</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1510364264249801</v>
+        <v>0.0600175112485885</v>
       </c>
       <c r="G14" t="n">
-        <v>2.41413950920105</v>
+        <v>-0.0474947728216648</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4211915731430053</v>
+        <v>0.0047342055477201</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.506411552429201</v>
+        <v>-3.052737355232238</v>
       </c>
       <c r="D15" t="n">
-        <v>6.245316505432129</v>
+        <v>9.127021908760071</v>
       </c>
       <c r="E15" t="n">
-        <v>3.238075017929073</v>
+        <v>-0.5663906224071975</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2503020465373993</v>
+        <v>0.0438295826315879</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.337489485740662</v>
+        <v>-0.08277224004268641</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0983493030071258</v>
+        <v>0.07590000331401819</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.049000829458237</v>
+        <v>-3.195896685123444</v>
       </c>
       <c r="D16" t="n">
-        <v>7.41145807504654</v>
+        <v>8.818168640136719</v>
       </c>
       <c r="E16" t="n">
-        <v>3.085425972938538</v>
+        <v>-1.334951654076576</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4132503271102905</v>
+        <v>-0.06276640295982359</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2756529450416565</v>
+        <v>-0.5068654417991638</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5613851547241211</v>
+        <v>-0.0064140851609408</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.151385545730594</v>
+        <v>-4.037624061107635</v>
       </c>
       <c r="D17" t="n">
-        <v>9.354082107543944</v>
+        <v>8.026161462068558</v>
       </c>
       <c r="E17" t="n">
-        <v>3.488138377666476</v>
+        <v>-2.41215243935585</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1337794959545135</v>
+        <v>-0.0687223374843597</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3077233731746673</v>
+        <v>-0.2246456891298294</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0181732401251792</v>
+        <v>0.1652390509843826</v>
       </c>
     </row>
     <row r="18">
@@ -933,19 +933,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.843811631202696</v>
+        <v>-3.571272850036621</v>
       </c>
       <c r="D18" t="n">
-        <v>9.246257454156877</v>
+        <v>6.589316844940186</v>
       </c>
       <c r="E18" t="n">
-        <v>2.557389497756956</v>
+        <v>-3.011023998260498</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0068722339347004</v>
+        <v>-0.2229658216238021</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2590068578720093</v>
+        <v>-0.113315500319004</v>
       </c>
       <c r="H18" t="n">
         <v>0.2180788964033126</v>
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.352240324020387</v>
+        <v>-5.014195352792741</v>
       </c>
       <c r="D19" t="n">
-        <v>7.618153929710387</v>
+        <v>5.515790849924088</v>
       </c>
       <c r="E19" t="n">
-        <v>3.785528540611267</v>
+        <v>-4.485763758420944</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0940732508897781</v>
+        <v>0.3182607889175415</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0920879393815994</v>
+        <v>0.6488916277885437</v>
       </c>
       <c r="H19" t="n">
-        <v>0.011148290708661</v>
+        <v>0.4970915913581848</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.598823010921479</v>
+        <v>-6.389075994491578</v>
       </c>
       <c r="D20" t="n">
-        <v>8.679397195577621</v>
+        <v>5.315201640129089</v>
       </c>
       <c r="E20" t="n">
-        <v>3.499203532934189</v>
+        <v>-2.994861543178557</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0429132841527462</v>
+        <v>0.3697261810302734</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0099265603348612</v>
+        <v>1.551903128623962</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2417499274015426</v>
+        <v>-0.230448916554451</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.266197681427002</v>
+        <v>-4.530004173517225</v>
       </c>
       <c r="D21" t="n">
-        <v>7.760588467121124</v>
+        <v>6.061075717210771</v>
       </c>
       <c r="E21" t="n">
-        <v>3.241497814655304</v>
+        <v>-1.65171818435192</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0386372283101081</v>
+        <v>0.451123982667923</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.8857545852661133</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0108428578823804</v>
+        <v>-1.012661814689636</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.840012192726136</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.050750851631165</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.538701653480534</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1492038369178772</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.078635334968567</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-4.738939762115479</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>39.4459085166455</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14.87950980663301</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20.98658950626853</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.247386813163757</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.642922043800354</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3756821155548095</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>20.97534060478203</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.63514316082</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12.98352101445195</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.319607973098755</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.2393064647912979</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-2.242333650588989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.842506676912319</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.827371656894682</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.018280878663065</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1510364264249801</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.41413950920105</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4211915731430053</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5.506411552429201</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.245316505432129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.238075017929073</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2503020465373993</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1.337489485740662</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0983493030071258</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6.049000829458237</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.41145807504654</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.085425972938538</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.4132503271102905</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2756529450416565</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.5613851547241211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5.151385545730594</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.354082107543944</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.488138377666476</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1337794959545135</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3077233731746673</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0181732401251792</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3.843811631202696</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.246257454156877</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.557389497756956</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0068722339347004</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.2590068578720093</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2180788964033126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4.352240324020387</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.618153929710387</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.785528540611267</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0940732508897781</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0920879393815994</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.011148290708661</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.598823010921479</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8.679397195577621</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.499203532934189</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0429132841527462</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0099265603348612</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.2417499274015426</v>
       </c>
     </row>
   </sheetData>
